--- a/その他提出物/(STARVOTE)詳細設計書.xlsx
+++ b/その他提出物/(STARVOTE)詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\①投票アプリ(Python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E297AB3-968B-4B13-9069-C0B61351A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8270E-D184-4217-9CD6-2F99F2AA550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
   </bookViews>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DEFAULT　FALSE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受信者（receiver_name）</t>
     <rPh sb="0" eb="3">
       <t>ジュシンシャ</t>
@@ -388,6 +384,19 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FALSE:使用可　TRUE:使用済</t>
+    <rPh sb="6" eb="9">
+      <t>シヨウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -767,13 +776,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +805,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,63 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1583,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>vote</a:t>
+            <a:t>votes</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
@@ -2086,7 +2095,7 @@
   <dimension ref="B1:AO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:O37"/>
+      <selection activeCell="U39" sqref="U39:AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2238,43 +2247,43 @@
       <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="46" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="48"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="52"/>
       <c r="AL5" s="33"/>
       <c r="AM5" s="33"/>
       <c r="AN5" s="15"/>
@@ -2286,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -2297,7 +2306,7 @@
       <c r="L6" s="33"/>
       <c r="M6" s="11"/>
       <c r="N6" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
@@ -2333,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -2344,7 +2353,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2380,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2391,7 +2400,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2547,34 +2556,34 @@
     </row>
     <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
-      <c r="F12" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="F12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="33"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
-      <c r="S12" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="51"/>
+      <c r="S12" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2583,13 +2592,13 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="33"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="48"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
       <c r="AN12" s="24"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.55000000000000004">
@@ -3066,28 +3075,28 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="48"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="52"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
       <c r="AG25" s="17"/>
@@ -3187,7 +3196,7 @@
     <row r="28" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -3232,44 +3241,44 @@
       <c r="C29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="43" t="s">
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="43" t="s">
+      <c r="Q29" s="47"/>
+      <c r="R29" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="43" t="s">
+      <c r="S29" s="48"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="45"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="47"/>
       <c r="AH29" s="33"/>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="33"/>
@@ -3283,44 +3292,44 @@
       <c r="C30" s="29">
         <v>1</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="58" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="58" t="s">
+      <c r="Q30" s="63"/>
+      <c r="R30" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="60"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="55" t="s">
+      <c r="S30" s="64"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="57"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="61"/>
       <c r="AH30" s="33"/>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="33"/>
@@ -3335,44 +3344,44 @@
         <f>C30+1</f>
         <v>2</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="43" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43">
+      <c r="Q31" s="47"/>
+      <c r="R31" s="46">
         <v>100</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="61" t="s">
+      <c r="S31" s="48"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="63"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="67"/>
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="33"/>
@@ -3387,44 +3396,44 @@
         <f t="shared" ref="C32" si="0">C31+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="43" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="43" t="s">
+      <c r="Q32" s="47"/>
+      <c r="R32" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="52" t="s">
+      <c r="S32" s="48"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="54"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="45"/>
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="33"/>
@@ -3477,7 +3486,7 @@
     <row r="34" spans="2:40" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="38"/>
       <c r="C34" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -3522,44 +3531,44 @@
       <c r="C35" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="43" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="43" t="s">
+      <c r="Q35" s="47"/>
+      <c r="R35" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="44"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="43" t="s">
+      <c r="S35" s="48"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="45"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="47"/>
       <c r="AH35" s="33"/>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="33"/>
@@ -3573,44 +3582,44 @@
       <c r="C36" s="29">
         <v>1</v>
       </c>
-      <c r="D36" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="58" t="s">
+      <c r="D36" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="58" t="s">
+      <c r="Q36" s="63"/>
+      <c r="R36" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S36" s="60"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="55" t="s">
+      <c r="S36" s="64"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="57"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="61"/>
       <c r="AH36" s="33"/>
       <c r="AI36" s="33"/>
       <c r="AJ36" s="33"/>
@@ -3625,44 +3634,44 @@
         <f t="shared" ref="C37:C39" si="1">C36+1</f>
         <v>2</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="43" t="s">
+      <c r="D37" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="43">
+      <c r="Q37" s="47"/>
+      <c r="R37" s="46">
         <v>255</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="54"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="45"/>
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
@@ -3677,44 +3686,44 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="43" t="s">
+      <c r="D38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="43" t="s">
+      <c r="Q38" s="47"/>
+      <c r="R38" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="54"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="45"/>
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
@@ -3729,44 +3738,44 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="43" t="s">
+      <c r="Q39" s="47"/>
+      <c r="R39" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="54"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="45"/>
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="33"/>
@@ -3864,44 +3873,44 @@
       <c r="C42" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64" t="s">
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64" t="s">
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
       <c r="AH42" s="33"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="33"/>
@@ -3915,44 +3924,44 @@
       <c r="C43" s="32">
         <v>1</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="66" t="s">
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66" t="s">
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="65" t="s">
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-      <c r="AG43" s="65"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="33"/>
@@ -3966,44 +3975,44 @@
       <c r="C44" s="30">
         <v>2</v>
       </c>
-      <c r="D44" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="64" t="s">
+      <c r="D44" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64">
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54">
         <v>100</v>
       </c>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="68" t="s">
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="68"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="33"/>
@@ -4017,44 +4026,44 @@
       <c r="C45" s="31">
         <v>3</v>
       </c>
-      <c r="D45" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="69" t="s">
+      <c r="D45" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56">
+        <v>100</v>
+      </c>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="Q45" s="69"/>
-      <c r="R45" s="69">
-        <v>100</v>
-      </c>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="55"/>
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="33"/>
@@ -4068,44 +4077,44 @@
       <c r="C46" s="30">
         <v>4</v>
       </c>
-      <c r="D46" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="64" t="s">
+      <c r="D46" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64" t="s">
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="67" t="s">
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="33"/>
@@ -4120,44 +4129,44 @@
         <f t="shared" ref="C47" si="2">C46+1</f>
         <v>5</v>
       </c>
-      <c r="D47" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="64" t="s">
+      <c r="D47" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64">
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54">
         <v>8</v>
       </c>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="33"/>
@@ -4217,6 +4226,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:AG29"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="N5:AK5"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AI12:AM12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:AG32"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:AG30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:AG31"/>
+    <mergeCell ref="U35:AG35"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:AG36"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:AG42"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:AG43"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:AG47"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:AG44"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:AG45"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:AG46"/>
     <mergeCell ref="D39:O39"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="R39:T39"/>
@@ -4233,57 +4293,6 @@
     <mergeCell ref="D35:O35"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="R35:T35"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:AG47"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:AG44"/>
-    <mergeCell ref="D44:O44"/>
-    <mergeCell ref="D45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:AG45"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:AG46"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:AG42"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:AG43"/>
-    <mergeCell ref="U35:AG35"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:AG36"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:AG32"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:AG30"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:AG31"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:AG29"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="N5:AK5"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AI12:AM12"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>

--- a/その他提出物/(STARVOTE)詳細設計書.xlsx
+++ b/その他提出物/(STARVOTE)詳細設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\①投票アプリ(Python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8270E-D184-4217-9CD6-2F99F2AA550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D21BE-6C16-427D-8BCC-4CA41391D46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
   </bookViews>
   <sheets>
     <sheet name="人気投票" sheetId="2" r:id="rId1"/>
@@ -257,19 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シリアルナンバーの有効性を照会し、有効であれば投票ページに遷移。</t>
-    <rPh sb="17" eb="19">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投票機能</t>
     <rPh sb="0" eb="2">
       <t>トウヒョウ</t>
@@ -396,6 +383,19 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルナンバーの有効性を照会し、有効であれば投票ページに遷移</t>
+    <rPh sb="17" eb="19">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1466,15 +1466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1489,7 +1489,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="5334000"/>
+          <a:off x="4143375" y="5210175"/>
           <a:ext cx="3200400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1525,15 +1525,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1548,7 +1548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4391025" y="5038725"/>
+          <a:off x="4410075" y="4981575"/>
           <a:ext cx="3048000" cy="257176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1789,13 +1789,137 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC043BC5-53E5-4996-8806-DFCD9083ED86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="4972051"/>
+          <a:ext cx="3276602" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA356DDF-59F7-4ABA-BCB7-82D371CE02E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="4686301"/>
+          <a:ext cx="1628775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>「トップページに戻る」を押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1833,7 +1957,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1939,7 +2063,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2081,7 +2205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2094,25 +2218,25 @@
   </sheetPr>
   <dimension ref="B1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39:AG39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="0.83203125" customWidth="1"/>
-    <col min="3" max="3" width="2.58203125" customWidth="1"/>
+    <col min="1" max="2" width="0.875" customWidth="1"/>
+    <col min="3" max="3" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="2.58203125" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="2.58203125" customWidth="1"/>
+    <col min="5" max="15" width="2.625" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="18" width="2.625" customWidth="1"/>
     <col min="19" max="19" width="2.75" customWidth="1"/>
-    <col min="20" max="40" width="2.58203125" customWidth="1"/>
-    <col min="41" max="47" width="1.58203125" customWidth="1"/>
+    <col min="20" max="40" width="2.625" customWidth="1"/>
+    <col min="41" max="47" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B2" s="5"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -2157,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -2200,7 +2324,7 @@
       <c r="AM3" s="13"/>
       <c r="AN3" s="14"/>
     </row>
-    <row r="4" spans="2:40" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -2241,7 +2365,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="15"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="33"/>
       <c r="D5" s="16" t="s">
@@ -2288,7 +2412,7 @@
       <c r="AM5" s="33"/>
       <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="33"/>
       <c r="D6" s="16">
@@ -2306,7 +2430,7 @@
       <c r="L6" s="33"/>
       <c r="M6" s="11"/>
       <c r="N6" s="33" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
@@ -2335,14 +2459,14 @@
       <c r="AM6" s="33"/>
       <c r="AN6" s="15"/>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="33"/>
       <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -2353,7 +2477,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2382,14 +2506,14 @@
       <c r="AM7" s="33"/>
       <c r="AN7" s="15"/>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="33"/>
       <c r="D8" s="16">
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2400,7 +2524,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2429,7 +2553,7 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="15"/>
     </row>
-    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -2470,7 +2594,7 @@
       <c r="AM9" s="17"/>
       <c r="AN9" s="18"/>
     </row>
-    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -2513,7 +2637,7 @@
       <c r="AM10" s="13"/>
       <c r="AN10" s="14"/>
     </row>
-    <row r="11" spans="2:40" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -2554,10 +2678,10 @@
       <c r="AM11" s="33"/>
       <c r="AN11" s="15"/>
     </row>
-    <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="F12" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="52"/>
@@ -2574,7 +2698,7 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
@@ -2583,7 +2707,7 @@
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2601,7 +2725,7 @@
       <c r="AM12" s="52"/>
       <c r="AN12" s="24"/>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="F13" s="33"/>
       <c r="G13" s="19"/>
@@ -2639,7 +2763,7 @@
       <c r="AM13" s="33"/>
       <c r="AN13" s="24"/>
     </row>
-    <row r="14" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="F14" s="33"/>
       <c r="G14" s="19"/>
@@ -2677,7 +2801,7 @@
       <c r="AM14" s="33"/>
       <c r="AN14" s="25"/>
     </row>
-    <row r="15" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="F15" s="33"/>
       <c r="G15" s="20"/>
@@ -2715,7 +2839,7 @@
       <c r="AM15" s="33"/>
       <c r="AN15" s="25"/>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="F16" s="33"/>
       <c r="G16" s="20"/>
@@ -2753,7 +2877,7 @@
       <c r="AM16" s="33"/>
       <c r="AN16" s="24"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="F17" s="33"/>
       <c r="G17" s="19"/>
@@ -2792,7 +2916,7 @@
       <c r="AN17" s="25"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="F18" s="33"/>
       <c r="G18" s="19"/>
@@ -2831,7 +2955,7 @@
       <c r="AN18" s="25"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="F19" s="33"/>
       <c r="G19" s="19"/>
@@ -2870,7 +2994,7 @@
       <c r="AN19" s="25"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="F20" s="33"/>
       <c r="G20" s="19"/>
@@ -2909,7 +3033,7 @@
       <c r="AN20" s="25"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="F21" s="33"/>
       <c r="G21" s="19"/>
@@ -2948,7 +3072,7 @@
       <c r="AN21" s="25"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="F22" s="33"/>
       <c r="G22" s="19"/>
@@ -2987,7 +3111,7 @@
       <c r="AN22" s="25"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="F23" s="33"/>
       <c r="G23" s="19"/>
@@ -3026,7 +3150,7 @@
       <c r="AN23" s="25"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
       <c r="F24" s="33"/>
       <c r="G24" s="19"/>
@@ -3065,7 +3189,7 @@
       <c r="AN24" s="25"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3109,7 +3233,7 @@
       <c r="AN25" s="25"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="38"/>
       <c r="C26" s="33" t="s">
         <v>7</v>
@@ -3152,7 +3276,7 @@
       <c r="AM26" s="33"/>
       <c r="AN26" s="15"/>
     </row>
-    <row r="27" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="38"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -3193,10 +3317,10 @@
       <c r="AM27" s="33"/>
       <c r="AN27" s="15"/>
     </row>
-    <row r="28" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -3236,7 +3360,7 @@
       <c r="AM28" s="33"/>
       <c r="AN28" s="15"/>
     </row>
-    <row r="29" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="38"/>
       <c r="C29" s="28" t="s">
         <v>8</v>
@@ -3287,7 +3411,7 @@
       <c r="AM29" s="33"/>
       <c r="AN29" s="15"/>
     </row>
-    <row r="30" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="38"/>
       <c r="C30" s="29">
         <v>1</v>
@@ -3338,7 +3462,7 @@
       <c r="AM30" s="33"/>
       <c r="AN30" s="15"/>
     </row>
-    <row r="31" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="38"/>
       <c r="C31" s="28">
         <f>C30+1</f>
@@ -3390,7 +3514,7 @@
       <c r="AM31" s="33"/>
       <c r="AN31" s="15"/>
     </row>
-    <row r="32" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="38"/>
       <c r="C32" s="28">
         <f t="shared" ref="C32" si="0">C31+1</f>
@@ -3442,7 +3566,7 @@
       <c r="AM32" s="33"/>
       <c r="AN32" s="15"/>
     </row>
-    <row r="33" spans="2:40" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:40" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="38"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -3483,10 +3607,10 @@
       <c r="AM33" s="33"/>
       <c r="AN33" s="15"/>
     </row>
-    <row r="34" spans="2:40" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:40" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="38"/>
       <c r="C34" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -3526,7 +3650,7 @@
       <c r="AM34" s="33"/>
       <c r="AN34" s="15"/>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B35" s="40"/>
       <c r="C35" s="28" t="s">
         <v>8</v>
@@ -3577,13 +3701,13 @@
       <c r="AM35" s="33"/>
       <c r="AN35" s="15"/>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B36" s="40"/>
       <c r="C36" s="29">
         <v>1</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="60"/>
@@ -3628,14 +3752,14 @@
       <c r="AM36" s="33"/>
       <c r="AN36" s="15"/>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B37" s="40"/>
       <c r="C37" s="28">
         <f t="shared" ref="C37:C39" si="1">C36+1</f>
         <v>2</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
@@ -3680,14 +3804,14 @@
       <c r="AM37" s="33"/>
       <c r="AN37" s="15"/>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B38" s="40"/>
       <c r="C38" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
@@ -3710,7 +3834,7 @@
       <c r="S38" s="48"/>
       <c r="T38" s="47"/>
       <c r="U38" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="44"/>
       <c r="W38" s="44"/>
@@ -3732,7 +3856,7 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="15"/>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B39" s="40"/>
       <c r="C39" s="28">
         <f t="shared" si="1"/>
@@ -3762,7 +3886,7 @@
       <c r="S39" s="48"/>
       <c r="T39" s="47"/>
       <c r="U39" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V39" s="44"/>
       <c r="W39" s="44"/>
@@ -3784,7 +3908,7 @@
       <c r="AM39" s="33"/>
       <c r="AN39" s="15"/>
     </row>
-    <row r="40" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B40" s="40"/>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
@@ -3825,7 +3949,7 @@
       <c r="AM40" s="33"/>
       <c r="AN40" s="15"/>
     </row>
-    <row r="41" spans="2:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B41" s="38"/>
       <c r="C41" s="39" t="s">
         <v>29</v>
@@ -3868,7 +3992,7 @@
       <c r="AM41" s="33"/>
       <c r="AN41" s="15"/>
     </row>
-    <row r="42" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="40"/>
       <c r="C42" s="30" t="s">
         <v>8</v>
@@ -3919,7 +4043,7 @@
       <c r="AM42" s="33"/>
       <c r="AN42" s="15"/>
     </row>
-    <row r="43" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="40"/>
       <c r="C43" s="32">
         <v>1</v>
@@ -3970,7 +4094,7 @@
       <c r="AM43" s="33"/>
       <c r="AN43" s="15"/>
     </row>
-    <row r="44" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B44" s="40"/>
       <c r="C44" s="30">
         <v>2</v>
@@ -4021,7 +4145,7 @@
       <c r="AM44" s="33"/>
       <c r="AN44" s="15"/>
     </row>
-    <row r="45" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B45" s="40"/>
       <c r="C45" s="31">
         <v>3</v>
@@ -4072,7 +4196,7 @@
       <c r="AM45" s="33"/>
       <c r="AN45" s="15"/>
     </row>
-    <row r="46" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B46" s="40"/>
       <c r="C46" s="30">
         <v>4</v>
@@ -4123,7 +4247,7 @@
       <c r="AM46" s="33"/>
       <c r="AN46" s="15"/>
     </row>
-    <row r="47" spans="2:40" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="40"/>
       <c r="C47" s="30">
         <f t="shared" ref="C47" si="2">C46+1</f>
@@ -4175,7 +4299,7 @@
       <c r="AM47" s="33"/>
       <c r="AN47" s="15"/>
     </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B48" s="42"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4216,7 +4340,7 @@
       <c r="AM48" s="8"/>
       <c r="AN48" s="9"/>
     </row>
-    <row r="49" spans="35:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="35:40" x14ac:dyDescent="0.4">
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
